--- a/target/test-classes/IGP.xlsx
+++ b/target/test-classes/IGP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>LoginTest</t>
   </si>
@@ -59,73 +59,79 @@
     <t>SignUp</t>
   </si>
   <si>
+    <t>Email-Id</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>xyx</t>
+  </si>
+  <si>
+    <t>sdfsf</t>
+  </si>
+  <si>
+    <t>ygugj</t>
+  </si>
+  <si>
+    <t>drzgg</t>
+  </si>
+  <si>
+    <t>fxxbg</t>
+  </si>
+  <si>
+    <t>fgz</t>
+  </si>
+  <si>
+    <t>rdfguyt</t>
+  </si>
+  <si>
+    <t>tdfhh</t>
+  </si>
+  <si>
+    <t>xyxx@gmail.com</t>
+  </si>
+  <si>
+    <t>rrm21995@gmail.com</t>
+  </si>
+  <si>
+    <t>tvyfhj@gmail.com</t>
+  </si>
+  <si>
+    <t>hsgjfghj@gmail.com</t>
+  </si>
+  <si>
+    <t>dddrgvzxre</t>
+  </si>
+  <si>
+    <t>srgesgrw</t>
+  </si>
+  <si>
+    <t>srdgsrh</t>
+  </si>
+  <si>
+    <t>zeterhh</t>
+  </si>
+  <si>
+    <t>ritesh123</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
     <t>ritesh12</t>
-  </si>
-  <si>
-    <t>Email-Id</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>xyx</t>
-  </si>
-  <si>
-    <t>sdfsf</t>
-  </si>
-  <si>
-    <t>ygugj</t>
-  </si>
-  <si>
-    <t>drzgg</t>
-  </si>
-  <si>
-    <t>fxxbg</t>
-  </si>
-  <si>
-    <t>fgz</t>
-  </si>
-  <si>
-    <t>rdfguyt</t>
-  </si>
-  <si>
-    <t>tdfhh</t>
-  </si>
-  <si>
-    <t>xyxx@gmail.com</t>
-  </si>
-  <si>
-    <t>rrm21995@gmail.com</t>
-  </si>
-  <si>
-    <t>tvyfhj@gmail.com</t>
-  </si>
-  <si>
-    <t>hsgjfghj@gmail.com</t>
-  </si>
-  <si>
-    <t>dddrgvzxre</t>
-  </si>
-  <si>
-    <t>srgesgrw</t>
-  </si>
-  <si>
-    <t>srdgsrh</t>
-  </si>
-  <si>
-    <t>zeterhh</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +615,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -618,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -654,22 +660,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,22 +686,22 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>9845123212</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,22 +712,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>6545123243</v>
       </c>
       <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -732,22 +738,22 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>9545523123</v>
       </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>7845129565</v>
       </c>
       <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -786,5 +792,6 @@
     <hyperlink ref="C11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/target/test-classes/IGP.xlsx
+++ b/target/test-classes/IGP.xlsx
@@ -125,10 +125,10 @@
     <t>zeterhh</t>
   </si>
   <si>
-    <t>ritesh123</t>
-  </si>
-  <si>
     <t>Failure</t>
+  </si>
+  <si>
+    <t>dffeb</t>
   </si>
   <si>
     <t>ritesh12</t>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/target/test-classes/IGP.xlsx
+++ b/target/test-classes/IGP.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/IGP.xlsx
+++ b/target/test-classes/IGP.xlsx
@@ -131,7 +131,7 @@
     <t>dffeb</t>
   </si>
   <si>
-    <t>ritesh12</t>
+    <t>ggyggu</t>
   </si>
 </sst>
 </file>
